--- a/nomes.xlsx
+++ b/nomes.xlsx
@@ -6,8 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PROXYS ATUAIS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CUPIDO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Completed" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Completed1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Completed2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Completed3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Completed4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -425,15 +429,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A93"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="47.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,1669 +460,2050 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Neirelmo</t>
+          <t>Esonia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23.129.254.28:6010:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.207:5890:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Olivandro</t>
+          <t>Falina</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>91.123.10.73:6615:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.7:7299:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Perolina</t>
+          <t>Geliane</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>185.72.242.44:5727:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.252.215:6483:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Quilerio</t>
+          <t>Hamilo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23.129.253.157:6775:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.220:7256:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rosinalva</t>
+          <t>Isonia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>185.72.242.206:5889:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.32:7068:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Silvanor</t>
+          <t>Jolino</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>185.72.241.120:7412:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.188:7480:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Telmarina</t>
+          <t>Ketia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>185.72.242.86:5769:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.55:7091:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ubelindo</t>
+          <t>Lilene</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>85.198.47.68:6336:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.8.79:6619:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Valeneia</t>
+          <t>Meliano</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>185.72.241.240:7532:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.210:7502:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wilmelia</t>
+          <t>Nerilo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23.129.253.191:6809:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.252.104:6372:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Xandilio</t>
+          <t>Ofelia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>185.72.240.249:7285:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.241.44:7336:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Yannetep</t>
+          <t>Palene</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23.129.253.141:6759:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.84:7120:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Zelmiron</t>
+          <t>Quelina</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>185.72.241.242:7534:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.241.118:7410:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ameraldo</t>
+          <t>Relen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23.129.254.123:6105:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.101:6719:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brinelia</t>
+          <t>Setrio</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>91.123.8.165:6705:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.184:7476:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cidoneia</t>
+          <t>Telina</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23.129.253.70:6688:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.5:5987:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dolmerio</t>
+          <t>Uliana</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>185.72.241.243:7535:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.235:6217:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Edineza</t>
+          <t>Viliana</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23.129.253.116:6734:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.163:7455:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Flavandro</t>
+          <t>Wesina</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>185.72.241.203:7495:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.201:6819:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>39</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gracilda</t>
+          <t>Xander</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23.129.253.241:6859:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.252.163:6431:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Herculano</t>
+          <t>Yonine</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23.129.254.23:6005:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.145:5828:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Idalina</t>
+          <t>Zenico</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>185.72.240.47:7083:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.152:7444:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jordenio</t>
+          <t>Abedro</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>91.123.8.220:6760:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.252.205:6473:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Klimeria</t>
+          <t>Biorio</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>185.72.242.147:5830:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.68:7360:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lornelio</t>
+          <t>Carina</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>91.123.11.182:6448:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.240.53:7089:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Martelia</t>
+          <t>Delfo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>185.72.242.96:5779:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.8.37:6577:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Neldino</t>
+          <t>Enilio</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>91.123.11.51:6317:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.252.46:6314:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ordeliap</t>
+          <t>Flaviana</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>91.123.8.228:6768:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.242.122:5805:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pauleria</t>
+          <t>Genilo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23.129.254.240:6222:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.10:5992:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>49</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Quintinopp</t>
+          <t>Honise</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>185.72.241.114:7406:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.171:7207:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Raimilda</t>
+          <t>Ilena</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>23.129.254.167:6149:RH7PROXYSS:BESTPROXYS</t>
+          <t>85.198.45.108:6032:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Selvidio</t>
+          <t>Jonelia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>185.72.242.156:5839:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.73:6691:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>52</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Terenilda</t>
+          <t>Kleina</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23.129.253.161:6779:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.12:5695:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>53</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ulmario</t>
+          <t>Larios</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>185.72.242.185:5868:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.248:6230:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>54</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Valdinea</t>
+          <t>Meorina</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>91.123.8.44:6584:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.209:5892:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Wilseria</t>
-        </is>
-      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23.129.254.79:6061:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.53:7089:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>56</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Xelmaro</t>
-        </is>
-      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23.129.254.240:6222:RH7PROXYSS:BESTPROXYS</t>
+          <t>85.198.45.40:5964:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>57</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tavalda</t>
-        </is>
-      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>185.72.241.201:7493:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.241.144:7436:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>58</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Urielio</t>
-        </is>
-      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>185.72.240.59:7095:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.124:6106:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Valdo</t>
-        </is>
-      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>185.72.240.117:7153:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.213:6831:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Waticia</t>
-        </is>
-      </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>185.72.242.195:5878:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.120:7412:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>61</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Xunesia</t>
-        </is>
-      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>185.72.241.127:7419:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.88:6070:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Yariana</t>
-        </is>
-      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23.129.253.243:6861:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.227:7519:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>63</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Zelon</t>
-        </is>
-      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>23.129.254.68:6050:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.85:7121:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>64</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Amandio</t>
-        </is>
-      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23.129.253.8:6626:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.203:6821:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Brizia</t>
-        </is>
-      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>185.72.242.192:5875:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.25:7061:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>66</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Cleana</t>
-        </is>
-      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>185.72.241.189:7481:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.242.168:5851:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Denira</t>
-        </is>
-      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>23.129.254.55:6037:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.36:6018:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>68</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Eleivia</t>
-        </is>
-      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>185.72.241.117:7409:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.240.215:7251:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Flanesia</t>
-        </is>
-      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>185.72.240.92:7128:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.197:6815:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Gelicia</t>
-        </is>
-      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>185.72.240.94:7130:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.54:5737:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>71</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Harila</t>
-        </is>
-      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>185.72.241.96:7388:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.250:5933:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Ilania</t>
-        </is>
-      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>185.72.241.189:7481:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.128:5811:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Jonia</t>
-        </is>
-      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>85.198.47.150:6418:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.224:6842:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>74</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Kalicia</t>
-        </is>
-      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>23.129.253.188:6806:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.71:6689:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Lareana</t>
-        </is>
-      </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>23.129.253.24:6642:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.253.157:6775:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>76</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Malucio</t>
-        </is>
-      </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>23.129.254.130:6112:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.196:5879:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Nonelio</t>
-        </is>
-      </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>91.123.8.173:6713:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.106:7398:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>78</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Olisia</t>
-        </is>
-      </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>185.72.240.230:7266:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.82:7118:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Paniba</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>23.129.253.22:6640:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Quileia</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>23.129.253.30:6648:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Ranoria</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>185.72.240.226:7262:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Salinaa</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>185.72.241.37:7329:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Talba</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>23.129.254.120:6102:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Barila</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>23.129.253.52:6670:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Carido</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>185.72.242.207:5890:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Dalina</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>185.72.241.7:7299:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Elunio</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>23.129.252.215:6483:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Feliciah</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>185.72.240.220:7256:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Ginara</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>185.72.240.32:7068:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Harine</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>185.72.241.188:7480:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Ildria</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>185.72.240.55:7091:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>91.123.8.79:6619:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>185.72.241.210:7502:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>23.129.252.104:6372:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>185.72.241.44:7336:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>185.72.240.84:7120:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>185.72.241.118:7410:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>23.129.253.101:6719:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>185.72.241.184:7476:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>23.129.254.5:5987:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>23.129.254.235:6217:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>185.72.241.163:7455:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>23.129.253.201:6819:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>23.129.252.163:6431:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>185.72.242.145:5828:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>185.72.241.152:7444:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>23.129.252.205:6473:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>185.72.241.68:7360:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>185.72.240.53:7089:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>91.123.8.37:6577:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>23.129.252.46:6314:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>185.72.242.122:5805:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>23.129.254.10:5992:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>185.72.240.171:7207:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>85.198.45.108:6032:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>23.129.253.73:6691:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>185.72.242.12:5695:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>23.129.254.248:6230:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>185.72.242.209:5892:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>185.72.240.53:7089:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>85.198.45.40:5964:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>185.72.241.144:7436:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>23.129.254.124:6106:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>23.129.253.213:6831:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>185.72.241.120:7412:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>23.129.254.88:6070:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>185.72.241.227:7519:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>185.72.240.85:7121:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>23.129.253.203:6821:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>185.72.240.25:7061:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>185.72.242.168:5851:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>23.129.254.36:6018:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>185.72.240.215:7251:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>23.129.253.197:6815:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>185.72.242.54:5737:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>185.72.242.250:5933:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>185.72.242.128:5811:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>23.129.253.224:6842:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>23.129.253.71:6689:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>23.129.253.157:6775:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>185.72.242.196:5879:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>185.72.241.106:7398:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>185.72.240.82:7118:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>185.72.240.10:7046:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>185.72.240.0:7036:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>23.129.253.52:6670:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>23.129.254.202:6184:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>185.72.242.152:5835:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>23.129.253.110:6728:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Maclcl</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>185.72.240.10:7046:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Norig</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>185.72.240.0:7036:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Olivio</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23.129.253.52:6670:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Panrel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23.129.254.202:6184:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Quelrel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>185.72.242.152:5835:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rinpa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23.129.253.110:6728:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Salcl</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>185.72.242.163:5846:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Talici</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>85.198.45.19:5943:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Uriag</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>185.72.240.8:7044:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vand</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23.129.253.37:6655:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Wanrel</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23.129.253.81:6699:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Xerina</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23.129.252.37:6305:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Yvenio</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23.129.254.106:6088:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Zelin</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23.129.254.144:6126:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Antor</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>185.72.242.110:5793:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bratio</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>185.72.241.184:7476:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Canici</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23.129.254.5:5987:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Daver</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23.129.254.235:6217:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Edain</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>185.72.241.163:7455:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Flari</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23.129.253.201:6819:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Gabric</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>23.129.252.163:6431:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Helana</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>185.72.242.145:5828:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Idulio</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>185.72.241.152:7444:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jania</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>185.72.241.195:7487:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Karine</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>185.72.242.98:5781:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lorani</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23.129.253.250:6868:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Macit</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>185.72.240.205:7241:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nolena</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>91.123.11.17:6283:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Olevan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>85.198.45.173:6097:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Paulic</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23.129.253.33:6651:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Quenle</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>185.72.242.38:5721:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Roneli</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>185.72.241.9:7301:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Salina</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>185.72.242.236:5919:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Taval</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23.129.254.118:6100:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Urielo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23.129.254.28:6010:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Valdo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>91.123.10.73:6615:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Watica</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>185.72.242.44:5727:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Xunes</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23.129.253.157:6775:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Yari</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>185.72.242.206:5889:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Zelon</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>185.72.241.120:7412:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Amand</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>185.72.242.86:5769:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brizia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>85.198.47.68:6336:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>185.72.241.240:7532:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Denira</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>185.72.242.110:5793:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Eleiv</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23.129.253.191:6809:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Flanes</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>185.72.240.249:7285:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gelici</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23.129.253.141:6759:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Harila</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>185.72.241.242:7534:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ilani</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23.129.254.123:6105:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jonia</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>91.123.8.165:6705:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kalici</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23.129.253.70:6688:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Larean</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>185.72.241.243:7535:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Maluci</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23.129.253.116:6734:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Noneli</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>185.72.241.203:7495:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Olisic</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23.129.253.241:6859:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Paniba</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23.129.254.23:6005:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Quilie</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>185.72.240.47:7083:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ranor</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>91.123.8.220:6760:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Salina</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>185.72.242.147:5830:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Talba</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>91.123.11.182:6448:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Panrel</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>185.72.242.96:5779:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vandero</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>91.123.11.51:6317:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wanisi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>91.123.8.228:6768:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Xerlo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23.129.254.240:6222:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Yoricio</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>185.72.241.114:7406:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Zeonar</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23.129.254.167:6149:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Alva</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>185.72.242.156:5839:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Beanio</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23.129.253.161:6779:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Careni</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>185.72.242.185:5868:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Domevio</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>91.123.8.44:6584:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Alantr</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23.129.254.79:6061:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Brivan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23.129.254.240:6222:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cleti</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>185.72.241.201:7493:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Daneli</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>185.72.240.59:7095:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Elian</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>185.72.240.117:7153:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Flarina</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>185.72.242.195:5878:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Geovani</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>185.72.241.127:7419:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hariana</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23.129.253.243:6861:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ilari</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23.129.254.68:6050:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jonise</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23.129.253.8:6626:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,301 +2520,301 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ubisabela</t>
+          <t>Katalo</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>185.72.242.163:5846:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.192:5875:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Valderio</t>
+          <t>Lareta</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>85.198.45.19:5943:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.241.189:7481:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wilmaro</t>
+          <t>Malico</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>185.72.240.8:7044:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.55:6037:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Xenop</t>
+          <t>Natino</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23.129.253.37:6655:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.117:7409:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yvenita</t>
+          <t>Olici</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23.129.253.81:6699:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.92:7128:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alinap</t>
+          <t>Pabel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23.129.252.37:6305:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.94:7130:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Beatrina</t>
+          <t>Quelina</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23.129.254.106:6088:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.96:7388:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alineia</t>
+          <t>Rosan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23.129.254.144:6126:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.189:7481:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bartulio</t>
+          <t>Salvi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>185.72.242.110:5793:rh7proxyspremium:fdsaschinas</t>
+          <t>85.198.47.150:6418:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Clarencio</t>
+          <t>Talino</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>185.72.241.195:7487:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.188:6806:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Delmarina</t>
+          <t>Ulena</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>185.72.242.98:5781:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.24:6642:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Efraneia</t>
+          <t>Valino</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23.129.253.250:6868:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.254.130:6112:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fernaniel</t>
+          <t>Walena</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>185.72.240.205:7241:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.8.173:6713:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gilberina</t>
+          <t>Xerin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>91.123.11.17:6283:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.230:7266:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Helidoro</t>
+          <t>Yvari</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>85.198.45.173:6097:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.22:6640:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Irineza</t>
+          <t>Zelen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23.129.253.33:6651:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.30:6648:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Julentino</t>
+          <t>Andril</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>185.72.242.38:5721:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.226:7262:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Karineia</t>
+          <t>Baline</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>185.72.241.9:7301:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.37:7329:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lurencio</t>
+          <t>Celiano</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>185.72.242.236:5919:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.120:6102:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mariodina</t>
+          <t>Damira</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23.129.254.118:6100:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.52:6670:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/nomes.xlsx
+++ b/nomes.xlsx
@@ -6,12 +6,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CUPIDO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Completed" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Completed1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Completed2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Completed3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Completed4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="teste de proxy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="old" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Completed" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Proxies Funcionando" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Completed1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Completed2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Completed3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Completed4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Completed5" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -429,26 +432,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="47.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="4" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>nome_perfil</t>
+          <t>nome</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>proxy</t>
+          <t>nome_proxy</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -460,770 +465,555 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esonia</t>
+          <t>Zey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>185.72.242.207:5890:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.161:6779:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Falina</t>
+          <t>Vurn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>185.72.241.7:7299:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.242.185:5868:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Geliane</t>
+          <t>Galorn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23.129.252.215:6483:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.8.44:6584:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hamilo</t>
+          <t>Keoru</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>185.72.240.220:7256:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.79:6061:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>104</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Isonia</t>
+          <t>Thyyen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>185.72.240.32:7068:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.240:6222:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>105</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jolino</t>
+          <t>Somri</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>185.72.241.188:7480:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.201:7493:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>106</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ketia</t>
+          <t>Yejun</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>185.72.240.55:7091:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.59:7095:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>107</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lilene</t>
+          <t>Renin</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>91.123.8.79:6619:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.117:7153:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>108</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Meliano</t>
+          <t>Bardro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>185.72.241.210:7502:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.195:5878:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>109</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nerilo</t>
+          <t>Vinnth</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23.129.252.104:6372:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.241.127:7419:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ofelia</t>
+          <t>Nanis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>185.72.241.44:7336:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.243:6861:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>111</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Palene</t>
+          <t>Rener</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>185.72.240.84:7120:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.68:6050:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Quelina</t>
-        </is>
-      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>185.72.241.118:7410:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.8:6626:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Relen</t>
-        </is>
-      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23.129.253.101:6719:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.192:5875:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Setrio</t>
-        </is>
-      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>185.72.241.184:7476:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.189:7481:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>115</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Telina</t>
-        </is>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23.129.254.5:5987:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.55:6037:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>116</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Uliana</t>
-        </is>
-      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23.129.254.235:6217:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.117:7409:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Viliana</t>
-        </is>
-      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>185.72.241.163:7455:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.92:7128:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Wesina</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23.129.253.201:6819:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.94:7130:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Xander</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23.129.252.163:6431:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.96:7388:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Yonine</t>
-        </is>
-      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>185.72.242.145:5828:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.189:7481:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Zenico</t>
-        </is>
-      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>185.72.241.152:7444:rh7proxyspremium:fdsaschinas</t>
+          <t>85.198.47.150:6418:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Abedro</t>
-        </is>
-      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23.129.252.205:6473:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.253.188:6806:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Biorio</t>
-        </is>
-      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>185.72.241.68:7360:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.24:6642:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Carina</t>
-        </is>
-      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>185.72.240.53:7089:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.130:6112:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Delfo</t>
-        </is>
-      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>91.123.8.37:6577:RH7PROXYSS:BESTPROXYS</t>
+          <t>91.123.8.173:6713:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Enilio</t>
-        </is>
-      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23.129.252.46:6314:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.240.230:7266:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Flaviana</t>
-        </is>
-      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>185.72.242.122:5805:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.22:6640:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Genilo</t>
-        </is>
-      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23.129.254.10:5992:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.30:6648:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Honise</t>
-        </is>
-      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>185.72.240.171:7207:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.226:7262:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ilena</t>
-        </is>
-      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>85.198.45.108:6032:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.37:7329:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Jonelia</t>
-        </is>
-      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>23.129.253.73:6691:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.120:6102:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Kleina</t>
-        </is>
-      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>185.72.242.12:5695:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.52:6670:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>133</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Larios</t>
-        </is>
-      </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23.129.254.248:6230:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.207:5890:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>134</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Meorina</t>
-        </is>
-      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>185.72.242.209:5892:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.7:7299:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>135</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>185.72.240.53:7089:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.252.215:6483:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>136</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>85.198.45.40:5964:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.240.220:7256:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>137</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>185.72.241.144:7436:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.32:7068:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>138</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>23.129.254.124:6106:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.188:7480:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>139</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>23.129.253.213:6831:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.55:7091:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>140</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>185.72.241.120:7412:RH7PROXYSS:BESTPROXYS</t>
+          <t>91.123.8.79:6619:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>141</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>23.129.254.88:6070:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.210:7502:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>142</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>185.72.241.227:7519:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.252.104:6372:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>143</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>185.72.240.85:7121:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.44:7336:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>144</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>23.129.253.203:6821:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.84:7120:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>145</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>185.72.240.25:7061:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.118:7410:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>146</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>185.72.242.168:5851:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.101:6719:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>147</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>23.129.254.36:6018:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.184:7476:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>148</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>185.72.240.215:7251:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.101:6719:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>23.129.253.197:6815:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>185.72.242.54:5737:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>185.72.242.250:5933:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>185.72.242.128:5811:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>23.129.253.224:6842:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>23.129.253.71:6689:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>23.129.253.157:6775:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>185.72.242.196:5879:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>185.72.241.106:7398:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>185.72.240.82:7118:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>159</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
 
@@ -1233,312 +1023,694 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A59" sqref="A58:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="47.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Maclcl</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>185.72.240.10:7046:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
+          <t>23.129.253.157:6775:RH7PROXYSS:BESTPROXYS</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Norig</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>185.72.240.0:7036:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
+          <t>185.72.242.196:5879:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Olivio</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>23.129.253.52:6670:rh7proxyspremium:fdsaschinas</t>
         </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Panrel</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>23.129.254.202:6184:rh7proxyspremium:fdsaschinas</t>
         </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Quelrel</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>185.72.242.152:5835:rh7proxyspremium:fdsaschinas</t>
         </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rinpa</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>23.129.253.110:6728:rh7proxyspremium:fdsaschinas</t>
         </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salcl</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>185.72.242.163:5846:rh7proxyspremium:fdsaschinas</t>
         </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Talici</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>85.198.45.19:5943:RH7PROXYSS:BESTPROXYS</t>
         </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Uriag</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>185.72.240.8:7044:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>9</v>
+          <t>23.129.253.37:6655:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vand</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>23.129.253.37:6655:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
+          <t>23.129.253.81:6699:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wanrel</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>23.129.253.81:6699:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>11</v>
+          <t>23.129.252.37:6305:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Xerina</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>23.129.252.37:6305:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
+          <t>23.129.254.106:6088:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Yvenio</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>23.129.254.106:6088:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>13</v>
+          <t>23.129.254.144:6126:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Zelin</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>23.129.254.144:6126:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>14</v>
+          <t>185.72.242.110:5793:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Antor</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>185.72.242.110:5793:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>15</v>
+          <t>185.72.242.98:5781:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bratio</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>185.72.241.184:7476:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>16</v>
+          <t>23.129.253.250:6868:RH7PROXYSS:BESTPROXYS</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Canici</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>23.129.254.5:5987:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>17</v>
+          <t>91.123.11.17:6283:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Daver</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>23.129.254.235:6217:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>18</v>
+          <t>85.198.45.173:6097:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Edain</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>185.72.241.163:7455:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>19</v>
+          <t>23.129.253.33:6651:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Flari</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+          <t>185.72.242.38:5721:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>185.72.242.236:5919:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>23.129.254.118:6100:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23.129.254.28:6010:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>185.72.242.44:5727:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23.129.253.157:6775:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>185.72.242.206:5889:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>185.72.242.86:5769:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>85.198.47.68:6336:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>23.129.253.191:6809:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>23.129.253.141:6759:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>23.129.254.123:6105:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>91.123.8.165:6705:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>23.129.253.70:6688:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>23.129.253.116:6734:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>23.129.253.241:6859:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>23.129.254.23:6005:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>91.123.8.220:6760:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>185.72.242.147:5830:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>91.123.11.182:6448:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>185.72.242.96:5779:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>91.123.11.51:6317:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>91.123.8.228:6768:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>23.129.254.240:6222:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>23.129.254.167:6149:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>185.72.242.156:5839:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>23.129.253.161:6779:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>185.72.242.185:5868:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>91.123.8.44:6584:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>23.129.254.79:6061:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>23.129.254.240:6222:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>185.72.242.195:5878:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>23.129.253.243:6861:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>23.129.254.68:6050:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>23.129.253.8:6626:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>185.72.242.192:5875:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>23.129.254.55:6037:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>85.198.47.150:6418:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>23.129.253.188:6806:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>23.129.253.24:6642:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>23.129.254.130:6112:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>91.123.8.173:6713:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>23.129.253.22:6640:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>23.129.253.30:6648:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>23.129.254.120:6102:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>23.129.253.52:6670:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>185.72.242.207:5890:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>23.129.252.215:6483:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>91.123.8.79:6619:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>23.129.252.104:6372:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>23.129.254.5:5987:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>23.129.254.235:6217:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>23.129.253.201:6819:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>20</v>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>23.129.252.163:6431:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>185.72.242.145:5828:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>23.129.252.205:6473:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>91.123.8.37:6577:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>23.129.252.46:6314:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>185.72.242.122:5805:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>23.129.254.10:5992:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>85.198.45.108:6032:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>23.129.253.73:6691:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>185.72.242.12:5695:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>23.129.254.248:6230:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>185.72.242.209:5892:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>85.198.45.40:5964:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>23.129.254.124:6106:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>23.129.253.213:6831:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>23.129.254.88:6070:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>23.129.253.203:6821:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>185.72.242.168:5851:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>23.129.254.36:6018:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>23.129.253.197:6815:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>185.72.242.54:5737:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>185.72.242.250:5933:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>185.72.242.128:5811:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>23.129.253.224:6842:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>23.129.253.71:6689:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1563,301 +1735,301 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Gabric</t>
+          <t>Renado</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>23.129.252.163:6431:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.157:6775:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Helana</t>
+          <t>Robilde</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>185.72.242.145:5828:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.196:5879:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Idulio</t>
+          <t>Sandario</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>185.72.241.152:7444:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.52:6670:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jania</t>
+          <t>Toniara</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>185.72.241.195:7487:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.202:6184:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Karine</t>
+          <t>Ulissara</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>185.72.242.98:5781:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.152:5835:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lorani</t>
+          <t>Vicena</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23.129.253.250:6868:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.253.110:6728:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Macit</t>
+          <t>Wasino</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>185.72.240.205:7241:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.163:5846:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nolena</t>
+          <t>Xaviro</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>91.123.11.17:6283:rh7proxyspremium:fdsaschinas</t>
+          <t>85.198.45.19:5943:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Olevan</t>
+          <t>Yagito</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>85.198.45.173:6097:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.37:6655:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paulic</t>
+          <t>Zeciro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23.129.253.33:6651:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.81:6699:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Quenle</t>
+          <t>Afone</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>185.72.242.38:5721:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.252.37:6305:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Roneli</t>
+          <t>Braufio</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>185.72.241.9:7301:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.106:6088:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Salina</t>
+          <t>Ciroara</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>185.72.242.236:5919:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.144:6126:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Taval</t>
+          <t>Dantez</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23.129.254.118:6100:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.110:5793:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Urielo</t>
+          <t>Elisel</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23.129.254.28:6010:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.98:5781:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Valdo</t>
+          <t>Fabido</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>91.123.10.73:6615:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.250:6868:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Watica</t>
+          <t>Gerane</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>185.72.242.44:5727:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.11.17:6283:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Xunes</t>
+          <t>Helino</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23.129.253.157:6775:rh7proxyspremium:fdsaschinas</t>
+          <t>85.198.45.173:6097:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Yari</t>
+          <t>Iageiro</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>185.72.242.206:5889:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.33:6651:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Zelon</t>
+          <t>Jefeira</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>185.72.241.120:7412:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.38:5721:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1871,10 +2043,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:A148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1882,301 +2054,1037 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Amand</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>185.72.242.86:5769:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>41</v>
+          <t>23.129.254.235:6217:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brizia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>85.198.47.68:6336:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
+          <t>185.72.241.163:7455:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>185.72.241.240:7532:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
+          <t>23.129.253.201:6819:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Denira</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>185.72.242.110:5793:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>44</v>
+          <t>23.129.252.163:6431:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eleiv</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>23.129.253.191:6809:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>45</v>
+          <t>185.72.242.145:5828:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Flanes</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>185.72.240.249:7285:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>46</v>
+          <t>185.72.241.152:7444:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gelici</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>23.129.253.141:6759:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>47</v>
+          <t>23.129.252.205:6473:RH7PROXYSS:BESTPROXYS</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Harila</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>185.72.241.242:7534:RH7PROXYSS:BESTPROXYS</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>48</v>
+          <t>185.72.241.68:7360:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ilani</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>23.129.254.123:6105:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>49</v>
+          <t>185.72.240.53:7089:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jonia</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>91.123.8.165:6705:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
+          <t>91.123.8.37:6577:RH7PROXYSS:BESTPROXYS</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kalici</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>23.129.253.70:6688:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>51</v>
+          <t>23.129.252.46:6314:RH7PROXYSS:BESTPROXYS</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Larean</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>185.72.241.243:7535:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>52</v>
+          <t>185.72.242.122:5805:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Maluci</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>23.129.253.116:6734:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>53</v>
+          <t>23.129.254.10:5992:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Noneli</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>185.72.241.203:7495:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>54</v>
+          <t>185.72.240.171:7207:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Olisic</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>23.129.253.241:6859:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>55</v>
+          <t>85.198.45.108:6032:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paniba</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>23.129.254.23:6005:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>56</v>
+          <t>23.129.253.73:6691:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Quilie</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>185.72.240.47:7083:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>57</v>
+          <t>185.72.242.12:5695:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ranor</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>91.123.8.220:6760:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>58</v>
+          <t>23.129.254.248:6230:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Salina</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>185.72.242.147:5830:rh7proxyspremium:fdsaschinas</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>59</v>
+          <t>185.72.242.209:5892:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Talba</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+          <t>185.72.240.53:7089:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>85.198.45.40:5964:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>185.72.241.144:7436:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23.129.254.124:6106:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23.129.253.213:6831:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>185.72.241.120:7412:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>23.129.254.88:6070:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>185.72.241.227:7519:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>185.72.240.85:7121:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>23.129.253.203:6821:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>185.72.240.25:7061:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>185.72.242.168:5851:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>23.129.254.36:6018:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>185.72.240.215:7251:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>23.129.253.197:6815:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>185.72.242.54:5737:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>185.72.242.250:5933:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>185.72.242.128:5811:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>23.129.253.224:6842:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>23.129.253.71:6689:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>23.129.253.157:6775:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>185.72.242.196:5879:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>185.72.241.106:7398:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>185.72.240.82:7118:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>185.72.240.10:7046:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>185.72.240.0:7036:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>23.129.253.52:6670:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>23.129.254.202:6184:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>185.72.242.152:5835:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>23.129.253.110:6728:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>185.72.242.163:5846:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>85.198.45.19:5943:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>185.72.240.8:7044:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>23.129.253.37:6655:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>23.129.253.81:6699:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>23.129.252.37:6305:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>23.129.254.106:6088:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>23.129.254.144:6126:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>185.72.242.110:5793:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>185.72.241.195:7487:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>185.72.242.98:5781:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>23.129.253.250:6868:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>185.72.240.205:7241:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>91.123.11.17:6283:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>85.198.45.173:6097:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>23.129.253.33:6651:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>185.72.242.38:5721:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>185.72.241.9:7301:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>185.72.242.236:5919:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>23.129.254.118:6100:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>23.129.254.28:6010:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>185.72.242.44:5727:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>23.129.253.157:6775:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>185.72.242.206:5889:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>185.72.241.120:7412:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>185.72.242.86:5769:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>85.198.47.68:6336:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>185.72.241.240:7532:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>23.129.253.191:6809:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>185.72.240.249:7285:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>23.129.253.141:6759:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>185.72.241.242:7534:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>23.129.254.123:6105:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>91.123.8.165:6705:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>23.129.253.70:6688:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>185.72.241.243:7535:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>23.129.253.116:6734:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>185.72.241.203:7495:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>23.129.253.241:6859:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>23.129.254.23:6005:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>185.72.240.47:7083:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>91.123.8.220:6760:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>185.72.242.147:5830:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>91.123.11.182:6448:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>60</v>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>185.72.242.96:5779:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>91.123.11.51:6317:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>91.123.8.228:6768:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>23.129.254.240:6222:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>185.72.241.114:7406:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>23.129.254.167:6149:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>185.72.242.156:5839:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>23.129.253.161:6779:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>185.72.242.185:5868:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>91.123.8.44:6584:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>23.129.254.79:6061:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>23.129.254.240:6222:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>185.72.241.201:7493:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>185.72.240.59:7095:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>185.72.240.117:7153:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>185.72.242.195:5878:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>185.72.241.127:7419:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>23.129.253.243:6861:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>23.129.254.68:6050:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>23.129.253.8:6626:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>185.72.242.192:5875:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>185.72.241.189:7481:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>23.129.254.55:6037:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>185.72.241.117:7409:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>185.72.240.92:7128:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>185.72.240.94:7130:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>185.72.241.96:7388:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>185.72.241.189:7481:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>85.198.47.150:6418:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>23.129.253.188:6806:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>23.129.253.24:6642:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>23.129.254.130:6112:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>91.123.8.173:6713:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>185.72.240.230:7266:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>23.129.253.22:6640:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>23.129.253.30:6648:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>185.72.240.226:7262:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>185.72.241.37:7329:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>23.129.254.120:6102:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>23.129.253.52:6670:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>185.72.242.207:5890:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>185.72.241.7:7299:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>23.129.252.215:6483:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>185.72.240.220:7256:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>185.72.240.32:7068:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>185.72.241.188:7480:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>185.72.240.55:7091:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>91.123.8.79:6619:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>185.72.241.210:7502:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>23.129.252.104:6372:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>185.72.241.44:7336:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>185.72.240.84:7120:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>185.72.241.118:7410:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>23.129.253.101:6719:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>185.72.241.184:7476:rh7proxyspremium:fdsaschinas</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2201,301 +3109,301 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Panrel</t>
+          <t>Engar</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>185.72.242.96:5779:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.235:6217:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vandero</t>
+          <t>Tarax</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>91.123.11.51:6317:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.241.163:7455:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wanisi</t>
+          <t>Fennza</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>91.123.8.228:6768:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.253.201:6819:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Xerlo</t>
+          <t>Azin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23.129.254.240:6222:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.252.163:6431:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yoricio</t>
+          <t>Cicyn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>185.72.241.114:7406:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.145:5828:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zeonar</t>
+          <t>Raglo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23.129.254.167:6149:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.241.152:7444:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alva</t>
+          <t>Ezeph</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>185.72.242.156:5839:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.252.205:6473:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Beanio</t>
+          <t>Dahelio</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23.129.253.161:6779:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.68:7360:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Careni</t>
+          <t>Vaury</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>185.72.242.185:5868:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.53:7089:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Domevio</t>
+          <t>Discreo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>91.123.8.44:6584:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.8.37:6577:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alantr</t>
+          <t>Phaone</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23.129.254.79:6061:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.252.46:6314:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brivan</t>
+          <t>Zanan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23.129.254.240:6222:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.242.122:5805:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>72</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cleti</t>
+          <t>Humony</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>185.72.241.201:7493:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.254.10:5992:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Daneli</t>
+          <t>Umir</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>185.72.240.59:7095:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.171:7207:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Elian</t>
+          <t>Apun</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>185.72.240.117:7153:rh7proxyspremium:fdsaschinas</t>
+          <t>85.198.45.108:6032:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Flarina</t>
+          <t>Rorki</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>185.72.242.195:5878:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.73:6691:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Geovani</t>
+          <t>Akalia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>185.72.241.127:7419:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.12:5695:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hariana</t>
+          <t>Eico</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23.129.253.243:6861:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.248:6230:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ilari</t>
+          <t>Violen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23.129.254.68:6050:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.209:5892:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jonise</t>
+          <t>Loho</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23.129.253.8:6626:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.53:7089:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2504,6 +3412,963 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Peoel</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>85.198.45.40:5964:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Crest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>185.72.241.144:7436:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omri</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23.129.254.124:6106:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lucen</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23.129.253.213:6831:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Varous</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>185.72.241.120:7412:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Artazi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23.129.254.88:6070:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Maoke</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>185.72.241.227:7519:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jarviel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>185.72.240.85:7121:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sanua</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23.129.253.203:6821:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sedgar</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>185.72.240.25:7061:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Misfo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>185.72.242.168:5851:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Leeona</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23.129.254.36:6018:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Camim</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>185.72.240.215:7251:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Quinari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23.129.253.197:6815:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sian</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>185.72.242.54:5737:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>185.72.242.250:5933:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Feyman</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>185.72.242.128:5811:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kindr</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23.129.253.224:6842:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ascane</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23.129.253.71:6689:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ruyma</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23.129.253.157:6775:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Mirius</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>185.72.242.196:5879:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rineo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>185.72.241.106:7398:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nahe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>185.72.240.82:7118:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Namiko</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>185.72.240.10:7046:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Violya</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>185.72.240.0:7036:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gusav</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23.129.253.52:6670:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Yuyma</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23.129.254.202:6184:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jaxaro</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>185.72.242.152:5835:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mordl</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23.129.253.110:6728:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lann</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>185.72.242.163:5846:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Xerava</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>85.198.45.19:5943:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Xenoth</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>185.72.240.8:7044:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Aion</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23.129.253.37:6655:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Narel</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23.129.253.81:6699:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tomio</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23.129.252.37:6305:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Voarn</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23.129.254.106:6088:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Prun</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23.129.254.144:6126:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Imaro</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>185.72.242.110:5793:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Arvine</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>185.72.241.195:7487:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Leofei</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>185.72.242.98:5781:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Urorn</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>23.129.253.250:6868:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Thyy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>185.72.240.205:7241:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Zynnia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>91.123.11.17:6283:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Blen</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>85.198.45.173:6097:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Esche</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23.129.253.33:6651:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Razzie</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>185.72.242.38:5721:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gangkar</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>185.72.241.9:7301:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>185.72.242.236:5919:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Harom</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23.129.254.118:6100:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Arthion</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23.129.254.28:6010:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hecalor</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>185.72.242.44:5727:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jusiva</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23.129.253.157:6775:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Anmork</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>185.72.242.206:5889:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Winara</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>185.72.241.120:7412:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Igorys</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>185.72.242.86:5769:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Veze</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>85.198.47.68:6336:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pikes</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>185.72.241.240:7532:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Brori</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23.129.253.191:6809:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Krysie</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>185.72.240.249:7285:RH7PROXYSS:BESTPROXYS</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Taru</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23.129.253.141:6759:rh7proxyspremium:fdsaschinas</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2520,301 +4385,301 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Katalo</t>
+          <t>Brina</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>185.72.242.192:5875:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.242:7534:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>81</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lareta</t>
+          <t>Serro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>185.72.241.189:7481:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.254.123:6105:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Malico</t>
+          <t>Toneli</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23.129.254.55:6037:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.8.165:6705:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Natino</t>
+          <t>Tyroke</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>185.72.241.117:7409:RH7PROXYSS:BESTPROXYS</t>
+          <t>23.129.253.70:6688:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olici</t>
+          <t>Adrin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>185.72.240.92:7128:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.243:7535:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pabel</t>
+          <t>Quyet</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>185.72.240.94:7130:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.116:6734:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Quelina</t>
+          <t>Gaith</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>185.72.241.96:7388:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.203:7495:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rosan</t>
+          <t>Celi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>185.72.241.189:7481:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.253.241:6859:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Salvi</t>
+          <t>Orne</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>85.198.47.150:6418:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.23:6005:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Talino</t>
+          <t>Kalorn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23.129.253.188:6806:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.240.47:7083:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>90</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ulena</t>
+          <t>Chy</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23.129.253.24:6642:RH7PROXYSS:BESTPROXYS</t>
+          <t>91.123.8.220:6760:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>91</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Valino</t>
+          <t>Jer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23.129.254.130:6112:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.147:5830:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>92</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Walena</t>
+          <t>Azrith</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>91.123.8.173:6713:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.11.182:6448:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Xerin</t>
+          <t>Jorgo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>185.72.240.230:7266:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.242.96:5779:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>94</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Yvari</t>
+          <t>Lotho</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23.129.253.22:6640:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.11.51:6317:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>95</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Zelen</t>
+          <t>Korg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23.129.253.30:6648:rh7proxyspremium:fdsaschinas</t>
+          <t>91.123.8.228:6768:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Andril</t>
+          <t>Vren</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>185.72.240.226:7262:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.240:6222:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>97</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Baline</t>
+          <t>Darok</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>185.72.241.37:7329:rh7proxyspremium:fdsaschinas</t>
+          <t>185.72.241.114:7406:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>98</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Celiano</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23.129.254.120:6102:rh7proxyspremium:fdsaschinas</t>
+          <t>23.129.254.167:6149:RH7PROXYSS:BESTPROXYS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>99</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Damira</t>
+          <t>Raat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23.129.253.52:6670:RH7PROXYSS:BESTPROXYS</t>
+          <t>185.72.242.156:5839:rh7proxyspremium:fdsaschinas</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
